--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Unc5d.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Unc5d.xlsx
@@ -531,22 +531,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H2">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I2">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J2">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02228402636488889</v>
+        <v>0.03901801341966666</v>
       </c>
       <c r="R2">
-        <v>0.200556237284</v>
+        <v>0.3511621207769999</v>
       </c>
       <c r="S2">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="T2">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>31.85826</v>
       </c>
       <c r="I3">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J3">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>2.43393920574</v>
       </c>
       <c r="S3">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="T3">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H4">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I4">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J4">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1171492928344444</v>
+        <v>0.1248426806232222</v>
       </c>
       <c r="R4">
-        <v>1.05434363551</v>
+        <v>1.123584125609</v>
       </c>
       <c r="S4">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="T4">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H5">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I5">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J5">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.01026057245311111</v>
+        <v>0.004073543747333333</v>
       </c>
       <c r="R5">
-        <v>0.09234515207799998</v>
+        <v>0.036661893726</v>
       </c>
       <c r="S5">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="T5">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
     </row>
   </sheetData>
